--- a/medicine/Enfance/La_Famille_Tant-Mieux/La_Famille_Tant-Mieux.xlsx
+++ b/medicine/Enfance/La_Famille_Tant-Mieux/La_Famille_Tant-Mieux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Famille Tant-Mieux (titre original : The Caravan Family)[1] est une série de six romans pour enfants écrits par Enid Blyton et publiés en Angleterre entre 1945 et 1951, et en France de 1963 à 1968 dans la collection Bibliothèque rose des éditions Hachette. Elle a été rééditée en France jusqu'en 1990.
+La Famille Tant-Mieux (titre original : The Caravan Family) est une série de six romans pour enfants écrits par Enid Blyton et publiés en Angleterre entre 1945 et 1951, et en France de 1963 à 1968 dans la collection Bibliothèque rose des éditions Hachette. Elle a été rééditée en France jusqu'en 1990.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Thème de la série</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La vie de la famille Tant-Mieux, composée du père, de la mère et de leurs trois enfants : Nicolas, Elisabeth et Marijo. Elle abandonne sa maison pour vivre une vie idéale à travers campagnes, en roulotte (on leur prêtera une péniche dans le deuxième tome). Toujours joyeuse, cette famille voit toujours le bon côté des choses. 
 </t>
@@ -543,7 +557,9 @@
           <t>Liste des titres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Famille Tant-Mieux (The Caravan Family, 1945) 1re édition française : 1963. Illustrations de Jacques Fromont. Nouvelle Bibliothèque rose no 133.
 La Famille Tant-Mieux en péniche (The Saucy Jane Family, 1947) 1re édition française : 1964. Illustrations de Jacques Fromont. Nouvelle Bibliothèque rose no 159.
